--- a/Lectures and Assignment 2/assignment3.xlsx
+++ b/Lectures and Assignment 2/assignment3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBA9C8-A2AB-4DC9-8AAA-8848231C583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1A1B0-91F1-485E-B583-0C640FB9EA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Demand</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>20. Baltic</t>
+  </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 2 (Total 36 points)</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8715376" cy="7068414"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -701,7 +704,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -713,7 +716,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -725,7 +728,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -741,7 +744,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -754,7 +757,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -768,7 +771,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -784,7 +787,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -800,7 +803,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -813,7 +816,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -827,7 +830,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -843,7 +846,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -857,7 +860,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -869,7 +872,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -881,7 +884,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -893,7 +896,7 @@
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -909,7 +912,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -922,7 +925,7 @@
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1"/>
+                            <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -938,7 +941,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -951,54 +954,7 @@
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -1009,18 +965,7 @@
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -1076,7 +1021,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1088,7 +1033,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1100,7 +1045,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1122,40 +1067,29 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here the optimal objective function value</a:t>
+                <a:t>optimal total transportation cost </a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1189,7 +1123,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1227,7 +1161,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1385,7 +1319,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1397,7 +1331,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1409,7 +1343,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1421,7 +1355,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1433,7 +1367,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1445,7 +1379,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1457,7 +1391,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1469,7 +1403,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1481,7 +1415,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1494,54 +1428,7 @@
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -1552,18 +1439,7 @@
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -1619,7 +1495,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1631,7 +1507,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1643,7 +1519,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1665,40 +1541,29 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here the optimal objective function value</a:t>
+                <a:t>optimal total transportation cost </a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1732,7 +1597,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -5381,9 +5246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5400,9 +5263,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A1" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AD1" s="5"/>
     </row>
